--- a/Wanda.BusinessIndicators/Excel/项目公司指标上报模版V2.xlsx
+++ b/Wanda.BusinessIndicators/Excel/项目公司指标上报模版V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>2014年度南区商业项目销售指标完成情况通报（数据截止至10.31）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -181,47 +181,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>合同</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>回款</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>入伙</t>
-    </r>
+    <t>销售</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>入伙</t>
-    </r>
+    <t>利润额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -366,6 +334,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -677,7 +648,7 @@
   <dimension ref="B1:P160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,41 +755,41 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="M5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="P5" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.25" x14ac:dyDescent="0.2">
@@ -3457,7 +3428,7 @@
       <c r="P160" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D6:D300" name="区域3"/>
     <protectedRange sqref="H6:J3003" name="允许编辑区域1"/>
